--- a/results/origin_arousal/s05.xlsx
+++ b/results/origin_arousal/s05.xlsx
@@ -9,8 +9,9 @@
   <sheets>
     <sheet name="condition" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="result" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="0.0" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="1.0" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summary" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="0.0" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="1.0" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,18 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="35">
   <si>
     <t>accuracy</t>
   </si>
   <si>
     <t>batch_size</t>
-  </si>
-  <si>
-    <t>calibration</t>
-  </si>
-  <si>
-    <t>cnn_fc</t>
   </si>
   <si>
     <t>conv_1</t>
@@ -41,7 +36,7 @@
     <t>conv_3</t>
   </si>
   <si>
-    <t>conv_fuse</t>
+    <t>conv_4</t>
   </si>
   <si>
     <t>epoch</t>
@@ -59,19 +54,7 @@
     <t>learning_rate</t>
   </si>
   <si>
-    <t>n_person</t>
-  </si>
-  <si>
     <t>norm</t>
-  </si>
-  <si>
-    <t>pool_1</t>
-  </si>
-  <si>
-    <t>pool_2</t>
-  </si>
-  <si>
-    <t>pool_3</t>
   </si>
   <si>
     <t>regularization</t>
@@ -92,28 +75,22 @@
     <t>train_sample</t>
   </si>
   <si>
-    <t>N</t>
+    <t>4*4*32</t>
   </si>
   <si>
-    <t>3*3*1*32</t>
+    <t>4*4*64</t>
   </si>
   <si>
-    <t>3*3*1*64</t>
+    <t>4*4*128</t>
   </si>
   <si>
-    <t>3*3*1*128</t>
-  </si>
-  <si>
-    <t>plus</t>
+    <t>1*1*13</t>
   </si>
   <si>
     <t>concat</t>
   </si>
   <si>
     <t>2D</t>
-  </si>
-  <si>
-    <t>None</t>
   </si>
   <si>
     <t>dropout</t>
@@ -129,6 +106,15 @@
   </si>
   <si>
     <t>train_loss</t>
+  </si>
+  <si>
+    <t>f1_score</t>
+  </si>
+  <si>
+    <t>precision</t>
+  </si>
+  <si>
+    <t>recall</t>
   </si>
   <si>
     <t>fpr</t>
@@ -486,7 +472,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,7 +480,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -549,96 +535,60 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24">
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" t="n">
-        <v>0.5374999940395355</v>
+        <v>0.5499999821186066</v>
       </c>
       <c r="B2" t="n">
         <v>200</v>
       </c>
       <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="n">
+        <v>70</v>
+      </c>
+      <c r="H2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" t="n">
+        <v>32</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="L2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="n">
+      <c r="N2" t="n">
         <v>1024</v>
       </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" t="s">
-        <v>28</v>
-      </c>
-      <c r="I2" t="n">
-        <v>70</v>
-      </c>
-      <c r="J2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" t="n">
-        <v>32</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1</v>
-      </c>
-      <c r="O2" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T2" t="n">
+      <c r="O2" t="n">
         <v>1024</v>
       </c>
-      <c r="U2" t="n">
-        <v>1024</v>
-      </c>
-      <c r="V2" t="n">
+      <c r="P2" t="n">
         <v>128</v>
       </c>
-      <c r="W2" t="n">
+      <c r="Q2" t="n">
         <v>240</v>
       </c>
-      <c r="X2" t="n">
+      <c r="R2" t="n">
         <v>2160</v>
       </c>
     </row>
@@ -663,19 +613,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -683,16 +633,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5474999845027924</v>
+        <v>0.4750000089406967</v>
       </c>
       <c r="C2" t="n">
-        <v>998.4540100097656</v>
+        <v>994.9572143554688</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4917045452378013</v>
+        <v>0.5037500045516274</v>
       </c>
       <c r="E2" t="n">
-        <v>999.3996082652699</v>
+        <v>994.3866133256392</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -700,16 +650,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5174999982118607</v>
+        <v>0.4625000059604645</v>
       </c>
       <c r="C3" t="n">
-        <v>981.9109802246094</v>
+        <v>976.8732604980469</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5149999938227914</v>
+        <v>0.5231818069111217</v>
       </c>
       <c r="E3" t="n">
-        <v>981.915205522017</v>
+        <v>976.3425625887784</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -717,16 +667,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.487500011920929</v>
+        <v>0.4575000107288361</v>
       </c>
       <c r="C4" t="n">
-        <v>964.4840698242188</v>
+        <v>959.1629943847656</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5181818116794933</v>
+        <v>0.5315909114750949</v>
       </c>
       <c r="E4" t="n">
-        <v>964.6603560014205</v>
+        <v>958.50732421875</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -734,16 +684,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.510000005364418</v>
+        <v>0.4725000113248825</v>
       </c>
       <c r="C5" t="n">
-        <v>948.0878295898438</v>
+        <v>941.7322692871094</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5468181750991128</v>
+        <v>0.5543181733651594</v>
       </c>
       <c r="E5" t="n">
-        <v>947.6652332652699</v>
+        <v>941.0626997514205</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -751,16 +701,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5174999982118607</v>
+        <v>0.5024999976158142</v>
       </c>
       <c r="C6" t="n">
-        <v>931.2335205078125</v>
+        <v>924.5192565917969</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5480681793256239</v>
+        <v>0.5528409047560259</v>
       </c>
       <c r="E6" t="n">
-        <v>930.9051791104404</v>
+        <v>923.8770862926136</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -768,16 +718,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.510000005364418</v>
+        <v>0.4874999821186066</v>
       </c>
       <c r="C7" t="n">
-        <v>915.1114196777344</v>
+        <v>907.7465515136719</v>
       </c>
       <c r="D7" t="n">
-        <v>0.5650000057437203</v>
+        <v>0.566931816664609</v>
       </c>
       <c r="E7" t="n">
-        <v>914.4373501864346</v>
+        <v>907.0307284268466</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -785,16 +735,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5575000047683716</v>
+        <v>0.4700000137090683</v>
       </c>
       <c r="C8" t="n">
-        <v>898.8187561035156</v>
+        <v>891.2180480957031</v>
       </c>
       <c r="D8" t="n">
-        <v>0.5771591013128107</v>
+        <v>0.5723863623358987</v>
       </c>
       <c r="E8" t="n">
-        <v>898.1947021484375</v>
+        <v>890.5012428977273</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -802,16 +752,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5349999964237213</v>
+        <v>0.502499982714653</v>
       </c>
       <c r="C9" t="n">
-        <v>883.0003662109375</v>
+        <v>874.9980163574219</v>
       </c>
       <c r="D9" t="n">
-        <v>0.5912500023841858</v>
+        <v>0.5792045376517556</v>
       </c>
       <c r="E9" t="n">
-        <v>882.2536288174716</v>
+        <v>874.2700084339489</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -819,16 +769,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5399999916553497</v>
+        <v>0.4975000023841858</v>
       </c>
       <c r="C10" t="n">
-        <v>867.2484741210938</v>
+        <v>859.0678100585938</v>
       </c>
       <c r="D10" t="n">
-        <v>0.601818176833066</v>
+        <v>0.5890909054062583</v>
       </c>
       <c r="E10" t="n">
-        <v>866.5681096857244</v>
+        <v>858.3034889914773</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -836,16 +786,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5374999940395355</v>
+        <v>0.5</v>
       </c>
       <c r="C11" t="n">
-        <v>851.9291076660156</v>
+        <v>843.3906860351562</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6082954569296404</v>
+        <v>0.6045454632152211</v>
       </c>
       <c r="E11" t="n">
-        <v>851.1404529918324</v>
+        <v>842.623085715554</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -853,16 +803,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5499999821186066</v>
+        <v>0.4925000071525574</v>
       </c>
       <c r="C12" t="n">
-        <v>836.705078125</v>
+        <v>827.9815673828125</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6201136383143339</v>
+        <v>0.6009090922095559</v>
       </c>
       <c r="E12" t="n">
-        <v>835.9078147194602</v>
+        <v>827.1964111328125</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -870,16 +820,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5250000059604645</v>
+        <v>0.5275000035762787</v>
       </c>
       <c r="C13" t="n">
-        <v>821.6457824707031</v>
+        <v>812.7743225097656</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6351136456836354</v>
+        <v>0.6145454590970819</v>
       </c>
       <c r="E13" t="n">
-        <v>820.999550559304</v>
+        <v>812.0919966264205</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -890,13 +840,13 @@
         <v>0.5074999928474426</v>
       </c>
       <c r="C14" t="n">
-        <v>807.0404357910156</v>
+        <v>797.9419860839844</v>
       </c>
       <c r="D14" t="n">
-        <v>0.632613637230613</v>
+        <v>0.6227272640575062</v>
       </c>
       <c r="E14" t="n">
-        <v>806.3517400568181</v>
+        <v>797.2014271129261</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -904,16 +854,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5175000131130219</v>
+        <v>0.5</v>
       </c>
       <c r="C15" t="n">
-        <v>792.6866149902344</v>
+        <v>783.3626708984375</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6462499824437228</v>
+        <v>0.6307954625649885</v>
       </c>
       <c r="E15" t="n">
-        <v>791.8715265447444</v>
+        <v>782.5953979492188</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -921,16 +871,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5525000095367432</v>
+        <v>0.5074999928474426</v>
       </c>
       <c r="C16" t="n">
-        <v>778.4387512207031</v>
+        <v>769.0086059570312</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6563636389645663</v>
+        <v>0.6438636400482871</v>
       </c>
       <c r="E16" t="n">
-        <v>777.6875998757102</v>
+        <v>768.2652532404119</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -938,16 +888,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5524999797344208</v>
+        <v>0.5125000029802322</v>
       </c>
       <c r="C17" t="n">
-        <v>764.5394592285156</v>
+        <v>754.8939819335938</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6537500023841858</v>
+        <v>0.646249998699535</v>
       </c>
       <c r="E17" t="n">
-        <v>763.7739535245029</v>
+        <v>754.1895030628551</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -955,16 +905,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5399999916553497</v>
+        <v>0.5199999958276749</v>
       </c>
       <c r="C18" t="n">
-        <v>750.8620910644531</v>
+        <v>741.0541687011719</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6689772714268077</v>
+        <v>0.6528409015048634</v>
       </c>
       <c r="E18" t="n">
-        <v>750.0603748668324</v>
+        <v>740.3321921608665</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -972,16 +922,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.5300000011920929</v>
+        <v>0.5174999982118607</v>
       </c>
       <c r="C19" t="n">
-        <v>737.3342590332031</v>
+        <v>727.4370422363281</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6828409054062583</v>
+        <v>0.6523863564838063</v>
       </c>
       <c r="E19" t="n">
-        <v>736.6039040305398</v>
+        <v>726.7380814985795</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -989,16 +939,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.4999999850988388</v>
+        <v>0.4525000005960464</v>
       </c>
       <c r="C20" t="n">
-        <v>724.145263671875</v>
+        <v>714.1041564941406</v>
       </c>
       <c r="D20" t="n">
-        <v>0.6798863681879911</v>
+        <v>0.6631818251176314</v>
       </c>
       <c r="E20" t="n">
-        <v>723.3818914240056</v>
+        <v>713.4178078391335</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1006,16 +956,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5324999988079071</v>
+        <v>0.5074999928474426</v>
       </c>
       <c r="C21" t="n">
-        <v>711.0987854003906</v>
+        <v>700.9610595703125</v>
       </c>
       <c r="D21" t="n">
-        <v>0.6903409036723051</v>
+        <v>0.6744318225167014</v>
       </c>
       <c r="E21" t="n">
-        <v>710.3673373135654</v>
+        <v>700.2917757901279</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1023,16 +973,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.5600000023841858</v>
+        <v>0.5275000035762787</v>
       </c>
       <c r="C22" t="n">
-        <v>698.2828674316406</v>
+        <v>688.061279296875</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6873863610354337</v>
+        <v>0.6750000065023248</v>
       </c>
       <c r="E22" t="n">
-        <v>697.6071555397727</v>
+        <v>687.4265580610795</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1040,16 +990,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.5450000166893005</v>
+        <v>0.4750000089406967</v>
       </c>
       <c r="C23" t="n">
-        <v>685.7006225585938</v>
+        <v>675.4473571777344</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7046590880914168</v>
+        <v>0.6851136305115439</v>
       </c>
       <c r="E23" t="n">
-        <v>685.0294688831676</v>
+        <v>674.7929853959517</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1057,16 +1007,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.5250000059604645</v>
+        <v>0.5150000005960464</v>
       </c>
       <c r="C24" t="n">
-        <v>673.4697570800781</v>
+        <v>662.9807434082031</v>
       </c>
       <c r="D24" t="n">
-        <v>0.6927272731607611</v>
+        <v>0.6768181865865533</v>
       </c>
       <c r="E24" t="n">
-        <v>672.7080078125</v>
+        <v>662.3848821466619</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1074,16 +1024,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5300000011920929</v>
+        <v>0.5275000035762787</v>
       </c>
       <c r="C25" t="n">
-        <v>661.2720642089844</v>
+        <v>650.7820739746094</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7044318209994923</v>
+        <v>0.6873863718726418</v>
       </c>
       <c r="E25" t="n">
-        <v>660.5636929598721</v>
+        <v>650.2015380859375</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1091,16 +1041,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.5600000023841858</v>
+        <v>0.5150000005960464</v>
       </c>
       <c r="C26" t="n">
-        <v>649.3084411621094</v>
+        <v>638.8497619628906</v>
       </c>
       <c r="D26" t="n">
-        <v>0.6977272629737854</v>
+        <v>0.6989772699095986</v>
       </c>
       <c r="E26" t="n">
-        <v>648.658203125</v>
+        <v>638.2480357776989</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1108,16 +1058,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5175000131130219</v>
+        <v>0.5250000059604645</v>
       </c>
       <c r="C27" t="n">
-        <v>637.6487426757812</v>
+        <v>627.0701904296875</v>
       </c>
       <c r="D27" t="n">
-        <v>0.7113636298613115</v>
+        <v>0.6984090913425792</v>
       </c>
       <c r="E27" t="n">
-        <v>636.945146040483</v>
+        <v>626.5027687766335</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1125,16 +1075,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5249999761581421</v>
+        <v>0.512499988079071</v>
       </c>
       <c r="C28" t="n">
-        <v>626.0810546875</v>
+        <v>615.5211181640625</v>
       </c>
       <c r="D28" t="n">
-        <v>0.7104545452378013</v>
+        <v>0.6888636350631714</v>
       </c>
       <c r="E28" t="n">
-        <v>625.4550725763494</v>
+        <v>615.0004938299006</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1142,16 +1092,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5274999737739563</v>
+        <v>0.5250000059604645</v>
       </c>
       <c r="C29" t="n">
-        <v>614.7840576171875</v>
+        <v>604.2189331054688</v>
       </c>
       <c r="D29" t="n">
-        <v>0.7125000032511625</v>
+        <v>0.7032954530282454</v>
       </c>
       <c r="E29" t="n">
-        <v>614.1536199396306</v>
+        <v>603.6738891601562</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1159,16 +1109,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.5475000143051147</v>
+        <v>0.5275000035762787</v>
       </c>
       <c r="C30" t="n">
-        <v>603.63037109375</v>
+        <v>593.0773315429688</v>
       </c>
       <c r="D30" t="n">
-        <v>0.714772722937844</v>
+        <v>0.7037500088865106</v>
       </c>
       <c r="E30" t="n">
-        <v>603.0659457120029</v>
+        <v>592.5700461647727</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1176,16 +1126,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5575000047683716</v>
+        <v>0.4900000095367432</v>
       </c>
       <c r="C31" t="n">
-        <v>592.7633972167969</v>
+        <v>582.1741333007812</v>
       </c>
       <c r="D31" t="n">
-        <v>0.7163636359301481</v>
+        <v>0.6987499973990701</v>
       </c>
       <c r="E31" t="n">
-        <v>592.1631303267045</v>
+        <v>581.6822842684659</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1193,16 +1143,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5175000131130219</v>
+        <v>0.5174999982118607</v>
       </c>
       <c r="C32" t="n">
-        <v>582.0348510742188</v>
+        <v>571.4457092285156</v>
       </c>
       <c r="D32" t="n">
-        <v>0.715568174015392</v>
+        <v>0.7095454660328951</v>
       </c>
       <c r="E32" t="n">
-        <v>581.4666470614346</v>
+        <v>570.9868829900569</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1210,16 +1160,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5499999821186066</v>
+        <v>0.4950000047683716</v>
       </c>
       <c r="C33" t="n">
-        <v>571.4570007324219</v>
+        <v>560.9540710449219</v>
       </c>
       <c r="D33" t="n">
-        <v>0.7264772653579712</v>
+        <v>0.7044318264180963</v>
       </c>
       <c r="E33" t="n">
-        <v>570.9426380504261</v>
+        <v>560.484375</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1227,16 +1177,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5125000029802322</v>
+        <v>0.5199999958276749</v>
       </c>
       <c r="C34" t="n">
-        <v>561.1740417480469</v>
+        <v>550.6202392578125</v>
       </c>
       <c r="D34" t="n">
-        <v>0.7215909145095132</v>
+        <v>0.7088636322454973</v>
       </c>
       <c r="E34" t="n">
-        <v>560.6197121360085</v>
+        <v>550.1773681640625</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1244,16 +1194,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.5474999845027924</v>
+        <v>0.5099999904632568</v>
       </c>
       <c r="C35" t="n">
-        <v>550.9518432617188</v>
+        <v>540.4980773925781</v>
       </c>
       <c r="D35" t="n">
-        <v>0.7252272800965742</v>
+        <v>0.7129545374350115</v>
       </c>
       <c r="E35" t="n">
-        <v>550.4784989790483</v>
+        <v>540.0689308860085</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1261,16 +1211,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.5600000023841858</v>
+        <v>0.5300000011920929</v>
       </c>
       <c r="C36" t="n">
-        <v>541.0093383789062</v>
+        <v>530.5482482910156</v>
       </c>
       <c r="D36" t="n">
-        <v>0.7256818251176314</v>
+        <v>0.706704551523382</v>
       </c>
       <c r="E36" t="n">
-        <v>540.5159690163352</v>
+        <v>530.144853071733</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1278,16 +1228,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.5224999785423279</v>
+        <v>0.5024999976158142</v>
       </c>
       <c r="C37" t="n">
-        <v>531.228271484375</v>
+        <v>520.8114624023438</v>
       </c>
       <c r="D37" t="n">
-        <v>0.7269318266348406</v>
+        <v>0.7149999954483726</v>
       </c>
       <c r="E37" t="n">
-        <v>530.73779296875</v>
+        <v>520.4088023792614</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1295,16 +1245,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.5600000023841858</v>
+        <v>0.5049999952316284</v>
       </c>
       <c r="C38" t="n">
-        <v>521.5828247070312</v>
+        <v>511.2425994873047</v>
       </c>
       <c r="D38" t="n">
-        <v>0.731136370788921</v>
+        <v>0.7114772688258778</v>
       </c>
       <c r="E38" t="n">
-        <v>521.1356922496449</v>
+        <v>510.8583068847656</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1312,16 +1262,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5099999904632568</v>
+        <v>0.4850000143051147</v>
       </c>
       <c r="C39" t="n">
-        <v>512.1679382324219</v>
+        <v>501.8586273193359</v>
       </c>
       <c r="D39" t="n">
-        <v>0.7226136489347978</v>
+        <v>0.7109090902588584</v>
       </c>
       <c r="E39" t="n">
-        <v>511.7074779163707</v>
+        <v>501.4785045276989</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1329,16 +1279,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.5600000023841858</v>
+        <v>0.5374999940395355</v>
       </c>
       <c r="C40" t="n">
-        <v>502.8676452636719</v>
+        <v>492.6062164306641</v>
       </c>
       <c r="D40" t="n">
-        <v>0.727613627910614</v>
+        <v>0.7101136337627064</v>
       </c>
       <c r="E40" t="n">
-        <v>502.4537242542614</v>
+        <v>492.2812250310724</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1346,16 +1296,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5399999916553497</v>
+        <v>0.5099999904632568</v>
       </c>
       <c r="C41" t="n">
-        <v>493.7607727050781</v>
+        <v>483.5834808349609</v>
       </c>
       <c r="D41" t="n">
-        <v>0.7301136363636364</v>
+        <v>0.7128409093076532</v>
       </c>
       <c r="E41" t="n">
-        <v>493.3612310236151</v>
+        <v>483.2476335005327</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1363,16 +1313,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.5075000077486038</v>
+        <v>0.5149999856948853</v>
       </c>
       <c r="C42" t="n">
-        <v>484.8727416992188</v>
+        <v>474.7231597900391</v>
       </c>
       <c r="D42" t="n">
-        <v>0.7244318127632141</v>
+        <v>0.7157954519445245</v>
       </c>
       <c r="E42" t="n">
-        <v>484.4391063343395</v>
+        <v>474.3927556818182</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1380,16 +1330,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.5499999821186066</v>
+        <v>0.5324999988079071</v>
       </c>
       <c r="C43" t="n">
-        <v>476.0488586425781</v>
+        <v>466.0077819824219</v>
       </c>
       <c r="D43" t="n">
-        <v>0.7189772670919244</v>
+        <v>0.7100000056353483</v>
       </c>
       <c r="E43" t="n">
-        <v>475.6809636896307</v>
+        <v>465.7043817693537</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1397,16 +1347,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.5399999916553497</v>
+        <v>0.4975000023841858</v>
       </c>
       <c r="C44" t="n">
-        <v>467.4716644287109</v>
+        <v>457.4800720214844</v>
       </c>
       <c r="D44" t="n">
-        <v>0.7311363599517129</v>
+        <v>0.7163636413487521</v>
       </c>
       <c r="E44" t="n">
-        <v>467.081523548473</v>
+        <v>457.1770047274503</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1414,16 +1364,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5499999821186066</v>
+        <v>0.5024999976158142</v>
       </c>
       <c r="C45" t="n">
-        <v>458.9985198974609</v>
+        <v>449.1071014404297</v>
       </c>
       <c r="D45" t="n">
-        <v>0.7175000039013949</v>
+        <v>0.7131818207827482</v>
       </c>
       <c r="E45" t="n">
-        <v>458.6411798650568</v>
+        <v>448.8180514248934</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1431,16 +1381,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.550000011920929</v>
+        <v>0.5275000035762787</v>
       </c>
       <c r="C46" t="n">
-        <v>450.7005004882812</v>
+        <v>440.8833923339844</v>
       </c>
       <c r="D46" t="n">
-        <v>0.7288636402650313</v>
+        <v>0.7080681811679493</v>
       </c>
       <c r="E46" t="n">
-        <v>450.3541481711648</v>
+        <v>440.6120078346946</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1448,16 +1398,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.5425000190734863</v>
+        <v>0.5024999976158142</v>
       </c>
       <c r="C47" t="n">
-        <v>442.5658111572266</v>
+        <v>432.8271636962891</v>
       </c>
       <c r="D47" t="n">
-        <v>0.7196591008793224</v>
+        <v>0.7049999995665117</v>
       </c>
       <c r="E47" t="n">
-        <v>442.2201094193892</v>
+        <v>432.5607882412997</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1465,16 +1415,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.5425000190734863</v>
+        <v>0.5024999976158142</v>
       </c>
       <c r="C48" t="n">
-        <v>434.5511322021484</v>
+        <v>424.9083404541016</v>
       </c>
       <c r="D48" t="n">
-        <v>0.7249999967488375</v>
+        <v>0.7127272703430869</v>
       </c>
       <c r="E48" t="n">
-        <v>434.2322332208807</v>
+        <v>424.6607138893821</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1482,16 +1432,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5349999964237213</v>
+        <v>0.4950000047683716</v>
       </c>
       <c r="C49" t="n">
-        <v>426.7135925292969</v>
+        <v>417.1626129150391</v>
       </c>
       <c r="D49" t="n">
-        <v>0.7254545471884988</v>
+        <v>0.715113639831543</v>
       </c>
       <c r="E49" t="n">
-        <v>426.3939153497869</v>
+        <v>416.9133439497514</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1499,16 +1449,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.5625</v>
+        <v>0.5074999928474426</v>
       </c>
       <c r="C50" t="n">
-        <v>419.0090942382812</v>
+        <v>409.5387573242188</v>
       </c>
       <c r="D50" t="n">
-        <v>0.7224999991330233</v>
+        <v>0.7115909077904441</v>
       </c>
       <c r="E50" t="n">
-        <v>418.7012079412287</v>
+        <v>409.3128828568892</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1516,16 +1466,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.5300000011920929</v>
+        <v>0.5099999904632568</v>
       </c>
       <c r="C51" t="n">
-        <v>411.4405822753906</v>
+        <v>402.0803527832031</v>
       </c>
       <c r="D51" t="n">
-        <v>0.7197727235880765</v>
+        <v>0.7094318162311207</v>
       </c>
       <c r="E51" t="n">
-        <v>411.1495500044389</v>
+        <v>401.8562150435014</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1533,16 +1483,16 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>0.5274999737739563</v>
+        <v>0.5</v>
       </c>
       <c r="C52" t="n">
-        <v>404.0371551513672</v>
+        <v>394.7604827880859</v>
       </c>
       <c r="D52" t="n">
-        <v>0.7214772701263428</v>
+        <v>0.7068181796507402</v>
       </c>
       <c r="E52" t="n">
-        <v>403.7404147061434</v>
+        <v>394.5433654785156</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1550,16 +1500,16 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>0.5349999964237213</v>
+        <v>0.5024999976158142</v>
       </c>
       <c r="C53" t="n">
-        <v>396.7425842285156</v>
+        <v>387.5805969238281</v>
       </c>
       <c r="D53" t="n">
-        <v>0.7215909145095132</v>
+        <v>0.7046590935100209</v>
       </c>
       <c r="E53" t="n">
-        <v>396.4665555087003</v>
+        <v>387.3675204190341</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1567,16 +1517,16 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>0.5125000029802322</v>
+        <v>0.5174999982118607</v>
       </c>
       <c r="C54" t="n">
-        <v>389.6194000244141</v>
+        <v>380.5284729003906</v>
       </c>
       <c r="D54" t="n">
-        <v>0.7182954549789429</v>
+        <v>0.7084090926430442</v>
       </c>
       <c r="E54" t="n">
-        <v>389.3316123268821</v>
+        <v>380.3296203613281</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1584,16 +1534,16 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>0.5499999821186066</v>
+        <v>0.5150000005960464</v>
       </c>
       <c r="C55" t="n">
-        <v>382.5717315673828</v>
+        <v>373.6195526123047</v>
       </c>
       <c r="D55" t="n">
-        <v>0.7194318066943776</v>
+        <v>0.7038636370138689</v>
       </c>
       <c r="E55" t="n">
-        <v>382.3232477361506</v>
+        <v>373.4248268821023</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1601,16 +1551,16 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5475000143051147</v>
+        <v>0.5150000005960464</v>
       </c>
       <c r="C56" t="n">
-        <v>375.70751953125</v>
+        <v>366.8392944335938</v>
       </c>
       <c r="D56" t="n">
-        <v>0.7222727320410989</v>
+        <v>0.7010227225043557</v>
       </c>
       <c r="E56" t="n">
-        <v>375.4477705522017</v>
+        <v>366.6527848677202</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1618,16 +1568,16 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>0.5224999785423279</v>
+        <v>0.5099999904632568</v>
       </c>
       <c r="C57" t="n">
-        <v>368.9390411376953</v>
+        <v>360.1929321289062</v>
       </c>
       <c r="D57" t="n">
-        <v>0.7157954519445245</v>
+        <v>0.6978409073569558</v>
       </c>
       <c r="E57" t="n">
-        <v>368.7018127441406</v>
+        <v>360.0111833052202</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1635,16 +1585,16 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>0.5300000011920929</v>
+        <v>0.5275000035762787</v>
       </c>
       <c r="C58" t="n">
-        <v>362.3214721679688</v>
+        <v>353.6638641357422</v>
       </c>
       <c r="D58" t="n">
-        <v>0.7202272740277377</v>
+        <v>0.6985227248885415</v>
       </c>
       <c r="E58" t="n">
-        <v>362.0804027210582</v>
+        <v>353.4938909357244</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1652,16 +1602,16 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>0.5425000190734863</v>
+        <v>0.5499999821186066</v>
       </c>
       <c r="C59" t="n">
-        <v>355.7971801757812</v>
+        <v>347.2610015869141</v>
       </c>
       <c r="D59" t="n">
-        <v>0.7163636413487521</v>
+        <v>0.69147728248076</v>
       </c>
       <c r="E59" t="n">
-        <v>355.5849109996449</v>
+        <v>347.1038984818892</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1669,16 +1619,16 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>0.5224999785423279</v>
+        <v>0.5349999964237213</v>
       </c>
       <c r="C60" t="n">
-        <v>349.444091796875</v>
+        <v>340.9925842285156</v>
       </c>
       <c r="D60" t="n">
-        <v>0.7245454571463845</v>
+        <v>0.696363627910614</v>
       </c>
       <c r="E60" t="n">
-        <v>349.2102772105824</v>
+        <v>340.8348527388139</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1686,16 +1636,16 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>0.5149999856948853</v>
+        <v>0.5324999988079071</v>
       </c>
       <c r="C61" t="n">
-        <v>343.1543731689453</v>
+        <v>334.8318939208984</v>
       </c>
       <c r="D61" t="n">
-        <v>0.706704546104778</v>
+        <v>0.6729545376517556</v>
       </c>
       <c r="E61" t="n">
-        <v>342.9535217285156</v>
+        <v>334.6855330033736</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1703,16 +1653,16 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>0.5399999916553497</v>
+        <v>0.5324999988079071</v>
       </c>
       <c r="C62" t="n">
-        <v>337.0308074951172</v>
+        <v>328.8031463623047</v>
       </c>
       <c r="D62" t="n">
-        <v>0.7160227244550531</v>
+        <v>0.6846590963276949</v>
       </c>
       <c r="E62" t="n">
-        <v>336.8161510120739</v>
+        <v>328.6548683860085</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1720,16 +1670,16 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>0.5324999988079071</v>
+        <v>0.5249999910593033</v>
       </c>
       <c r="C63" t="n">
-        <v>330.9916534423828</v>
+        <v>322.8827972412109</v>
       </c>
       <c r="D63" t="n">
-        <v>0.707159085707231</v>
+        <v>0.6851136413487521</v>
       </c>
       <c r="E63" t="n">
-        <v>330.7938815030184</v>
+        <v>322.7397488680753</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1737,16 +1687,16 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>0.5224999785423279</v>
+        <v>0.5550000071525574</v>
       </c>
       <c r="C64" t="n">
-        <v>325.0753326416016</v>
+        <v>317.0712890625</v>
       </c>
       <c r="D64" t="n">
-        <v>0.7085227424448187</v>
+        <v>0.6784090887416493</v>
       </c>
       <c r="E64" t="n">
-        <v>324.8828790838068</v>
+        <v>316.9376026500355</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1754,16 +1704,16 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>0.5300000011920929</v>
+        <v>0.5600000023841858</v>
       </c>
       <c r="C65" t="n">
-        <v>319.2710571289062</v>
+        <v>311.3701477050781</v>
       </c>
       <c r="D65" t="n">
-        <v>0.7150000062855807</v>
+        <v>0.679886362769387</v>
       </c>
       <c r="E65" t="n">
-        <v>319.0841397372159</v>
+        <v>311.2462102716619</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1771,16 +1721,16 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>0.5449999868869781</v>
+        <v>0.5575000047683716</v>
       </c>
       <c r="C66" t="n">
-        <v>313.5726318359375</v>
+        <v>305.794921875</v>
       </c>
       <c r="D66" t="n">
-        <v>0.7093181826851584</v>
+        <v>0.6769318147139116</v>
       </c>
       <c r="E66" t="n">
-        <v>313.3948447487571</v>
+        <v>305.6655356667259</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1788,16 +1738,16 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>0.5275000035762787</v>
+        <v>0.5550000071525574</v>
       </c>
       <c r="C67" t="n">
-        <v>307.984375</v>
+        <v>300.3066864013672</v>
       </c>
       <c r="D67" t="n">
-        <v>0.7082954482598738</v>
+        <v>0.6697727279229597</v>
       </c>
       <c r="E67" t="n">
-        <v>307.8117592551491</v>
+        <v>300.1914201216264</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1805,16 +1755,16 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>0.5424999892711639</v>
+        <v>0.5499999821186066</v>
       </c>
       <c r="C68" t="n">
-        <v>302.4998474121094</v>
+        <v>294.9316253662109</v>
       </c>
       <c r="D68" t="n">
-        <v>0.6972727287899364</v>
+        <v>0.6726136315952648</v>
       </c>
       <c r="E68" t="n">
-        <v>302.3361677689986</v>
+        <v>294.8228288130327</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1822,16 +1772,16 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>0.5374999940395355</v>
+        <v>0.5525000095367432</v>
       </c>
       <c r="C69" t="n">
-        <v>297.1246337890625</v>
+        <v>289.6673889160156</v>
       </c>
       <c r="D69" t="n">
-        <v>0.7015909227457914</v>
+        <v>0.670681817965074</v>
       </c>
       <c r="E69" t="n">
-        <v>296.9618086381392</v>
+        <v>289.5567460493608</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1839,16 +1789,16 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>0.5149999856948853</v>
+        <v>0.5525000095367432</v>
       </c>
       <c r="C70" t="n">
-        <v>291.8519439697266</v>
+        <v>284.5049591064453</v>
       </c>
       <c r="D70" t="n">
-        <v>0.7022727294401689</v>
+        <v>0.6646590828895569</v>
       </c>
       <c r="E70" t="n">
-        <v>291.6888399991122</v>
+        <v>284.3921175870028</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1856,16 +1806,16 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>0.5374999940395355</v>
+        <v>0.5499999821186066</v>
       </c>
       <c r="C71" t="n">
-        <v>286.6665344238281</v>
+        <v>279.4286041259766</v>
       </c>
       <c r="D71" t="n">
-        <v>0.6929545294154774</v>
+        <v>0.6655681729316711</v>
       </c>
       <c r="E71" t="n">
-        <v>286.5176197398793</v>
+        <v>279.328105579723</v>
       </c>
     </row>
   </sheetData>
@@ -1879,7 +1829,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C113"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1889,1245 +1839,35 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>0.5806451612903226</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00819672131147541</v>
+        <v>0.5901639344262295</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="n">
-        <v>0</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5614035087719298</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04098360655737705</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0.008474576271186441</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.04098360655737705</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0.008474576271186441</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.06557377049180328</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0.03389830508474576</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.06557377049180328</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.03389830508474576</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.07377049180327869</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.05932203389830509</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.07377049180327869</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.05932203389830509</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.08196721311475409</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.07627118644067797</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.08196721311475409</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.07627118644067797</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.09836065573770492</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.0847457627118644</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.09836065573770492</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>0.0847457627118644</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1065573770491803</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="n">
-        <v>0.1016949152542373</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1065573770491803</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="n">
-        <v>0.1016949152542373</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1147540983606557</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="n">
-        <v>0.1101694915254237</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.1147540983606557</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="n">
-        <v>0.1101694915254237</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1311475409836066</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="n">
-        <v>0.1271186440677966</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.1311475409836066</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" t="n">
-        <v>0.1271186440677966</v>
-      </c>
-      <c r="B19" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.1475409836065574</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="n">
-        <v>0.1440677966101695</v>
-      </c>
-      <c r="B20" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.1475409836065574</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="n">
-        <v>0.1440677966101695</v>
-      </c>
-      <c r="B21" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.1639344262295082</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" t="n">
-        <v>0.1525423728813559</v>
-      </c>
-      <c r="B22" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.1639344262295082</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" t="n">
-        <v>0.1525423728813559</v>
-      </c>
-      <c r="B23" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.1721311475409836</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" t="n">
-        <v>0.1779661016949153</v>
-      </c>
-      <c r="B24" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.1721311475409836</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" t="n">
-        <v>0.1779661016949153</v>
-      </c>
-      <c r="B25" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.1967213114754098</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" t="n">
-        <v>0.1949152542372881</v>
-      </c>
-      <c r="B26" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.1967213114754098</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" t="n">
-        <v>0.1949152542372881</v>
-      </c>
-      <c r="B27" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.2213114754098361</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" t="n">
-        <v>0.211864406779661</v>
-      </c>
-      <c r="B28" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.2213114754098361</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="n">
-        <v>0.211864406779661</v>
-      </c>
-      <c r="B29" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.2295081967213115</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="n">
-        <v>0.2203389830508475</v>
-      </c>
-      <c r="B30" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.2295081967213115</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="n">
-        <v>0.2203389830508475</v>
-      </c>
-      <c r="B31" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.2377049180327869</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="n">
-        <v>0.2457627118644068</v>
-      </c>
-      <c r="B32" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.2377049180327869</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="n">
-        <v>0.2457627118644068</v>
-      </c>
-      <c r="B33" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.2459016393442623</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="n">
-        <v>0.2542372881355932</v>
-      </c>
-      <c r="B34" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.2459016393442623</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="n">
-        <v>0.2542372881355932</v>
-      </c>
-      <c r="B35" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0.2540983606557377</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" t="n">
-        <v>0.2627118644067797</v>
-      </c>
-      <c r="B36" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.2540983606557377</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" t="n">
-        <v>0.2627118644067797</v>
-      </c>
-      <c r="B37" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.2868852459016393</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" t="n">
-        <v>0.2796610169491525</v>
-      </c>
-      <c r="B38" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0.2868852459016393</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" t="n">
-        <v>0.2796610169491525</v>
-      </c>
-      <c r="B39" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0.2950819672131147</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" t="n">
-        <v>0.2966101694915254</v>
-      </c>
-      <c r="B40" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0.2950819672131147</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" t="n">
-        <v>0.2966101694915254</v>
-      </c>
-      <c r="B41" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.319672131147541</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" t="n">
-        <v>0.3305084745762712</v>
-      </c>
-      <c r="B42" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0.319672131147541</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" t="n">
-        <v>0.3305084745762712</v>
-      </c>
-      <c r="B43" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0.3360655737704918</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" t="n">
-        <v>0.3389830508474576</v>
-      </c>
-      <c r="B44" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0.3360655737704918</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" t="n">
-        <v>0.3389830508474576</v>
-      </c>
-      <c r="B45" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0.3688524590163935</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" t="n">
-        <v>0.3644067796610169</v>
-      </c>
-      <c r="B46" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0.3688524590163935</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" t="n">
-        <v>0.3644067796610169</v>
-      </c>
-      <c r="B47" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C47" t="n">
-        <v>0.4016393442622951</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" t="n">
-        <v>0.3898305084745763</v>
-      </c>
-      <c r="B48" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C48" t="n">
-        <v>0.4016393442622951</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" t="n">
-        <v>0.3898305084745763</v>
-      </c>
-      <c r="B49" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0.4344262295081967</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" t="n">
-        <v>0.4152542372881356</v>
-      </c>
-      <c r="B50" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C50" t="n">
-        <v>0.4344262295081967</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" t="n">
-        <v>0.4152542372881356</v>
-      </c>
-      <c r="B51" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0.4508196721311475</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3">
-      <c r="A52" t="n">
-        <v>0.423728813559322</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0.4508196721311475</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
-      <c r="A53" t="n">
-        <v>0.423728813559322</v>
-      </c>
-      <c r="B53" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C53" t="n">
-        <v>0.4672131147540984</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" t="n">
-        <v>0.4491525423728814</v>
-      </c>
-      <c r="B54" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C54" t="n">
-        <v>0.4672131147540984</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
-      <c r="A55" t="n">
-        <v>0.4491525423728814</v>
-      </c>
-      <c r="B55" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C55" t="n">
-        <v>0.4836065573770492</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
-      <c r="A56" t="n">
-        <v>0.4745762711864407</v>
-      </c>
-      <c r="B56" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C56" t="n">
-        <v>0.4836065573770492</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" t="n">
-        <v>0.4745762711864407</v>
-      </c>
-      <c r="B57" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C57" t="n">
-        <v>0.5245901639344263</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" t="n">
-        <v>0.4830508474576271</v>
-      </c>
-      <c r="B58" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C58" t="n">
-        <v>0.5245901639344263</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
-      <c r="A59" t="n">
-        <v>0.4830508474576271</v>
-      </c>
-      <c r="B59" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C59" t="n">
-        <v>0.5491803278688525</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" t="n">
-        <v>0.4915254237288136</v>
-      </c>
-      <c r="B60" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C60" t="n">
-        <v>0.5491803278688525</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" t="n">
-        <v>0.4915254237288136</v>
-      </c>
-      <c r="B61" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C61" t="n">
-        <v>0.5737704918032787</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" t="n">
-        <v>0.5169491525423728</v>
-      </c>
-      <c r="B62" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C62" t="n">
-        <v>0.5737704918032787</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" t="n">
-        <v>0.5169491525423728</v>
-      </c>
-      <c r="B63" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C63" t="n">
-        <v>0.5819672131147541</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" t="n">
-        <v>0.5254237288135594</v>
-      </c>
-      <c r="B64" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C64" t="n">
-        <v>0.5819672131147541</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" t="n">
-        <v>0.5254237288135594</v>
-      </c>
-      <c r="B65" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C65" t="n">
-        <v>0.5901639344262295</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" t="n">
         <v>0.5423728813559322</v>
-      </c>
-      <c r="B66" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C66" t="n">
-        <v>0.5901639344262295</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" t="n">
-        <v>0.5423728813559322</v>
-      </c>
-      <c r="B67" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C67" t="n">
-        <v>0.6147540983606558</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" t="n">
-        <v>0.5508474576271186</v>
-      </c>
-      <c r="B68" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C68" t="n">
-        <v>0.6147540983606558</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" t="n">
-        <v>0.5508474576271186</v>
-      </c>
-      <c r="B69" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C69" t="n">
-        <v>0.6229508196721312</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" t="n">
-        <v>0.576271186440678</v>
-      </c>
-      <c r="B70" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C70" t="n">
-        <v>0.6229508196721312</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" t="n">
-        <v>0.576271186440678</v>
-      </c>
-      <c r="B71" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C71" t="n">
-        <v>0.6475409836065574</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" t="n">
-        <v>0.5847457627118644</v>
-      </c>
-      <c r="B72" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C72" t="n">
-        <v>0.6475409836065574</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" t="n">
-        <v>0.5847457627118644</v>
-      </c>
-      <c r="B73" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C73" t="n">
-        <v>0.6557377049180327</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" t="n">
-        <v>0.6016949152542372</v>
-      </c>
-      <c r="B74" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C74" t="n">
-        <v>0.6557377049180327</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" t="n">
-        <v>0.6016949152542372</v>
-      </c>
-      <c r="B75" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C75" t="n">
-        <v>0.6639344262295082</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" t="n">
-        <v>0.6186440677966102</v>
-      </c>
-      <c r="B76" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C76" t="n">
-        <v>0.6639344262295082</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" t="n">
-        <v>0.6186440677966102</v>
-      </c>
-      <c r="B77" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C77" t="n">
-        <v>0.7131147540983607</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" t="n">
-        <v>0.6271186440677966</v>
-      </c>
-      <c r="B78" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C78" t="n">
-        <v>0.7131147540983607</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" t="n">
-        <v>0.6271186440677966</v>
-      </c>
-      <c r="B79" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C79" t="n">
-        <v>0.7213114754098361</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" t="n">
-        <v>0.6440677966101694</v>
-      </c>
-      <c r="B80" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C80" t="n">
-        <v>0.7213114754098361</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" t="n">
-        <v>0.6440677966101694</v>
-      </c>
-      <c r="B81" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C81" t="n">
-        <v>0.7377049180327869</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" t="n">
-        <v>0.652542372881356</v>
-      </c>
-      <c r="B82" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C82" t="n">
-        <v>0.7377049180327869</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" t="n">
-        <v>0.652542372881356</v>
-      </c>
-      <c r="B83" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C83" t="n">
-        <v>0.7786885245901639</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" t="n">
-        <v>0.6610169491525424</v>
-      </c>
-      <c r="B84" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C84" t="n">
-        <v>0.7786885245901639</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" t="n">
-        <v>0.6610169491525424</v>
-      </c>
-      <c r="B85" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C85" t="n">
-        <v>0.7950819672131147</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" t="n">
-        <v>0.6779661016949152</v>
-      </c>
-      <c r="B86" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C86" t="n">
-        <v>0.7950819672131147</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" t="n">
-        <v>0.6779661016949152</v>
-      </c>
-      <c r="B87" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C87" t="n">
-        <v>0.8032786885245902</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" t="n">
-        <v>0.6864406779661016</v>
-      </c>
-      <c r="B88" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C88" t="n">
-        <v>0.8032786885245902</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
-      <c r="A89" t="n">
-        <v>0.6864406779661016</v>
-      </c>
-      <c r="B89" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C89" t="n">
-        <v>0.8114754098360656</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" t="n">
-        <v>0.6949152542372882</v>
-      </c>
-      <c r="B90" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C90" t="n">
-        <v>0.8114754098360656</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" t="n">
-        <v>0.6949152542372882</v>
-      </c>
-      <c r="B91" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C91" t="n">
-        <v>0.8278688524590164</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" t="n">
-        <v>0.7288135593220338</v>
-      </c>
-      <c r="B92" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C92" t="n">
-        <v>0.8278688524590164</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" t="n">
-        <v>0.7288135593220338</v>
-      </c>
-      <c r="B93" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C93" t="n">
-        <v>0.8360655737704918</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" t="n">
-        <v>0.7711864406779662</v>
-      </c>
-      <c r="B94" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C94" t="n">
-        <v>0.8360655737704918</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" t="n">
-        <v>0.7711864406779662</v>
-      </c>
-      <c r="B95" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C95" t="n">
-        <v>0.8442622950819673</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" t="n">
-        <v>0.788135593220339</v>
-      </c>
-      <c r="B96" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C96" t="n">
-        <v>0.8442622950819673</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" t="n">
-        <v>0.788135593220339</v>
-      </c>
-      <c r="B97" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C97" t="n">
-        <v>0.8524590163934426</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" t="n">
-        <v>0.8050847457627118</v>
-      </c>
-      <c r="B98" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C98" t="n">
-        <v>0.8524590163934426</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" t="n">
-        <v>0.8050847457627118</v>
-      </c>
-      <c r="B99" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C99" t="n">
-        <v>0.860655737704918</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" t="n">
-        <v>0.8220338983050848</v>
-      </c>
-      <c r="B100" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C100" t="n">
-        <v>0.860655737704918</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" t="n">
-        <v>0.8220338983050848</v>
-      </c>
-      <c r="B101" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C101" t="n">
-        <v>0.8934426229508197</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" t="n">
-        <v>0.8898305084745762</v>
-      </c>
-      <c r="B102" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C102" t="n">
-        <v>0.8934426229508197</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" t="n">
-        <v>0.8898305084745762</v>
-      </c>
-      <c r="B103" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C103" t="n">
-        <v>0.9098360655737705</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" t="n">
-        <v>0.8983050847457628</v>
-      </c>
-      <c r="B104" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C104" t="n">
-        <v>0.9098360655737705</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" t="n">
-        <v>0.8983050847457628</v>
-      </c>
-      <c r="B105" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C105" t="n">
-        <v>0.9344262295081968</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" t="n">
-        <v>0.9491525423728814</v>
-      </c>
-      <c r="B106" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C106" t="n">
-        <v>0.9344262295081968</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" t="n">
-        <v>0.9491525423728814</v>
-      </c>
-      <c r="B107" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C107" t="n">
-        <v>0.9508196721311475</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" t="n">
-        <v>0.9576271186440678</v>
-      </c>
-      <c r="B108" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C108" t="n">
-        <v>0.9508196721311475</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" t="n">
-        <v>0.9576271186440678</v>
-      </c>
-      <c r="B109" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C109" t="n">
-        <v>0.9672131147540983</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" t="n">
-        <v>0.9661016949152542</v>
-      </c>
-      <c r="B110" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C110" t="n">
-        <v>0.9672131147540983</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" t="n">
-        <v>0.9661016949152542</v>
-      </c>
-      <c r="B111" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C111" t="n">
-        <v>0.9836065573770492</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" t="n">
-        <v>1</v>
-      </c>
-      <c r="B112" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C112" t="n">
-        <v>0.9836065573770492</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" t="n">
-        <v>1</v>
-      </c>
-      <c r="B113" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C113" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3141,7 +1881,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C114"/>
+  <dimension ref="A1:C122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3151,13 +1891,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3165,194 +1905,1555 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.00819672131147541</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="n">
-        <v>0.00819672131147541</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>0.02459016393442623</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="n">
-        <v>0.01639344262295082</v>
+        <v>0.02542372881355932</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>0.02459016393442623</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="n">
-        <v>0.01639344262295082</v>
+        <v>0.02542372881355932</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03389830508474576</v>
+        <v>0.05737704918032787</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="n">
-        <v>0.03278688524590164</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03389830508474576</v>
+        <v>0.05737704918032787</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="n">
-        <v>0.03278688524590164</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0423728813559322</v>
+        <v>0.06557377049180328</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="n">
-        <v>0.04918032786885246</v>
+        <v>0.0423728813559322</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0423728813559322</v>
+        <v>0.06557377049180328</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="n">
-        <v>0.04918032786885246</v>
+        <v>0.0423728813559322</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05084745762711865</v>
+        <v>0.07377049180327869</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="n">
-        <v>0.06557377049180328</v>
+        <v>0.06779661016949153</v>
       </c>
       <c r="B10" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05084745762711865</v>
+        <v>0.07377049180327869</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="n">
-        <v>0.06557377049180328</v>
+        <v>0.06779661016949153</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1016949152542373</v>
+        <v>0.08196721311475409</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="n">
-        <v>0.09016393442622951</v>
+        <v>0.07627118644067797</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1016949152542373</v>
+        <v>0.08196721311475409</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="n">
-        <v>0.09016393442622951</v>
+        <v>0.07627118644067797</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1101694915254237</v>
+        <v>0.09836065573770492</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="n">
-        <v>0.1065573770491803</v>
+        <v>0.0847457627118644</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1101694915254237</v>
+        <v>0.09836065573770492</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="n">
-        <v>0.1065573770491803</v>
+        <v>0.0847457627118644</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1779661016949153</v>
+        <v>0.1229508196721311</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="n">
-        <v>0.139344262295082</v>
+        <v>0.1016949152542373</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1779661016949153</v>
+        <v>0.1229508196721311</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="n">
-        <v>0.139344262295082</v>
+        <v>0.1016949152542373</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1949152542372881</v>
+        <v>0.1475409836065574</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="n">
+        <v>0.1101694915254237</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C18" t="n">
         <v>0.1475409836065574</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.1949152542372881</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="n">
-        <v>0.1475409836065574</v>
+        <v>0.1101694915254237</v>
       </c>
       <c r="B19" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.1885245901639344</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="n">
+        <v>0.1271186440677966</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.1885245901639344</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="n">
+        <v>0.1271186440677966</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.1967213114754098</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" t="n">
+        <v>0.1440677966101695</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.1967213114754098</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" t="n">
+        <v>0.1440677966101695</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.2131147540983606</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" t="n">
+        <v>0.1610169491525424</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.2131147540983606</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" t="n">
+        <v>0.1610169491525424</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.2213114754098361</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="n">
+        <v>0.1694915254237288</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.2213114754098361</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="n">
+        <v>0.1694915254237288</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.2377049180327869</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="n">
+        <v>0.1779661016949153</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.2377049180327869</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="n">
+        <v>0.1779661016949153</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.2540983606557377</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="n">
+        <v>0.1949152542372881</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.2540983606557377</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="n">
+        <v>0.1949152542372881</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.2704918032786885</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="n">
+        <v>0.2033898305084746</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.2704918032786885</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="n">
+        <v>0.2033898305084746</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.2786885245901639</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="n">
+        <v>0.2288135593220339</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.2786885245901639</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="n">
+        <v>0.2288135593220339</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.2868852459016393</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="n">
+        <v>0.2542372881355932</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.2868852459016393</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" t="n">
+        <v>0.2542372881355932</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.3032786885245902</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="n">
+        <v>0.2627118644067797</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.3032786885245902</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="n">
+        <v>0.2627118644067797</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.3278688524590164</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="n">
+        <v>0.2796610169491525</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.3278688524590164</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="n">
+        <v>0.2796610169491525</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.3524590163934426</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" t="n">
+        <v>0.288135593220339</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.3524590163934426</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" t="n">
+        <v>0.288135593220339</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.360655737704918</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" t="n">
+        <v>0.3050847457627119</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.360655737704918</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="n">
+        <v>0.3050847457627119</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.3688524590163935</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="n">
+        <v>0.3135593220338983</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.3688524590163935</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="n">
+        <v>0.3135593220338983</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.4262295081967213</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="n">
+        <v>0.3220338983050847</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.4262295081967213</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="n">
+        <v>0.3220338983050847</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.4344262295081967</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="n">
+        <v>0.3389830508474576</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.4344262295081967</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="n">
+        <v>0.3389830508474576</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.4508196721311475</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="n">
+        <v>0.3474576271186441</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.4508196721311475</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="n">
+        <v>0.3474576271186441</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.459016393442623</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="n">
+        <v>0.3559322033898305</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.459016393442623</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="n">
+        <v>0.3559322033898305</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.4672131147540984</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="n">
+        <v>0.3813559322033898</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.4672131147540984</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="n">
+        <v>0.3813559322033898</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.4754098360655737</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="n">
+        <v>0.3983050847457627</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.4754098360655737</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="n">
+        <v>0.3983050847457627</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C59" t="n">
+        <v>0.4918032786885246</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="n">
+        <v>0.4067796610169492</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.4918032786885246</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="n">
+        <v>0.4067796610169492</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.5163934426229508</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="n">
+        <v>0.423728813559322</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.5163934426229508</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="n">
+        <v>0.423728813559322</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.5245901639344263</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="n">
+        <v>0.4406779661016949</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.5245901639344263</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="n">
+        <v>0.4406779661016949</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.5819672131147541</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="n">
+        <v>0.4491525423728814</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.5819672131147541</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="n">
+        <v>0.4491525423728814</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.5901639344262295</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="n">
+        <v>0.4576271186440678</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C68" t="n">
+        <v>0.5901639344262295</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="n">
+        <v>0.4576271186440678</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.5983606557377049</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="n">
+        <v>0.4745762711864407</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.5983606557377049</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="n">
+        <v>0.4745762711864407</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.6065573770491803</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="n">
+        <v>0.4915254237288136</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.6065573770491803</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="n">
+        <v>0.4915254237288136</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.6229508196721312</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.6229508196721312</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.6311475409836066</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="n">
+        <v>0.5169491525423728</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C76" t="n">
+        <v>0.6311475409836066</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="n">
+        <v>0.5169491525423728</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C77" t="n">
+        <v>0.639344262295082</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="n">
+        <v>0.5508474576271186</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C78" t="n">
+        <v>0.639344262295082</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="n">
+        <v>0.5508474576271186</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C79" t="n">
+        <v>0.6721311475409836</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="n">
+        <v>0.5677966101694916</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.6721311475409836</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="n">
+        <v>0.5677966101694916</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.680327868852459</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="n">
+        <v>0.6016949152542372</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.680327868852459</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="n">
+        <v>0.6016949152542372</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.6967213114754098</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="n">
+        <v>0.6101694915254238</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.6967213114754098</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="n">
+        <v>0.6101694915254238</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.7049180327868853</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="n">
+        <v>0.635593220338983</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.7049180327868853</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="n">
+        <v>0.635593220338983</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C87" t="n">
+        <v>0.7131147540983607</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="n">
+        <v>0.6440677966101694</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C88" t="n">
+        <v>0.7131147540983607</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="n">
+        <v>0.6440677966101694</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.7459016393442623</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="n">
+        <v>0.6610169491525424</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.7459016393442623</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="n">
+        <v>0.6610169491525424</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.7622950819672131</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="n">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.7622950819672131</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="n">
+        <v>0.6949152542372882</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.7704918032786885</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="n">
+        <v>0.7033898305084746</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.7704918032786885</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="n">
+        <v>0.7033898305084746</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.7786885245901639</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="n">
+        <v>0.7288135593220338</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.7786885245901639</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="n">
+        <v>0.7288135593220338</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.819672131147541</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="n">
+        <v>0.7372881355932204</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.819672131147541</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="n">
+        <v>0.7372881355932204</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.8278688524590164</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="n">
+        <v>0.7457627118644068</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.8278688524590164</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="n">
+        <v>0.7457627118644068</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.8360655737704918</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="n">
+        <v>0.7796610169491526</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.8360655737704918</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="n">
+        <v>0.7796610169491526</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.8442622950819673</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="n">
+        <v>0.788135593220339</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.8442622950819673</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="n">
+        <v>0.788135593220339</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.860655737704918</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="n">
+        <v>0.7966101694915254</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.860655737704918</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="n">
+        <v>0.7966101694915254</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.8934426229508197</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="n">
+        <v>0.8135593220338984</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.8934426229508197</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="n">
+        <v>0.8135593220338984</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.9262295081967213</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="n">
+        <v>0.8220338983050848</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.9262295081967213</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="n">
+        <v>0.8220338983050848</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.9426229508196722</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="n">
+        <v>0.8559322033898306</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.9426229508196722</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="n">
+        <v>0.8559322033898306</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.9508196721311475</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="n">
+        <v>0.864406779661017</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.9508196721311475</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" t="n">
+        <v>0.864406779661017</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.9672131147540983</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="n">
+        <v>0.8813559322033898</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.9672131147540983</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="n">
+        <v>0.8813559322033898</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.9836065573770492</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="n">
+        <v>0.8898305084745762</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.9836065573770492</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="n">
+        <v>0.8898305084745762</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.9918032786885246</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="n">
+        <v>0.9830508474576272</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.9918032786885246</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" t="n">
+        <v>0.9830508474576272</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" t="n">
+        <v>1</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C122"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.008474576271186441</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="n">
+        <v>0</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.01694915254237288</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="n">
+        <v>0.00819672131147541</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.01694915254237288</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="n">
+        <v>0.00819672131147541</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1101694915254237</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="n">
+        <v>0.01639344262295082</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.1101694915254237</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="n">
+        <v>0.01639344262295082</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.1186440677966102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="n">
+        <v>0.03278688524590164</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1186440677966102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="n">
+        <v>0.03278688524590164</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1355932203389831</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="n">
+        <v>0.04918032786885246</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1355932203389831</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="n">
+        <v>0.04918032786885246</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1440677966101695</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="n">
+        <v>0.05737704918032787</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.1440677966101695</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="n">
+        <v>0.05737704918032787</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.1779661016949153</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="n">
+        <v>0.07377049180327869</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.1779661016949153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="n">
+        <v>0.07377049180327869</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.1864406779661017</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="n">
+        <v>0.1065573770491803</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1864406779661017</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="n">
+        <v>0.1065573770491803</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.2033898305084746</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="n">
+        <v>0.139344262295082</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.2033898305084746</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="n">
+        <v>0.139344262295082</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.5752292303417615</v>
       </c>
       <c r="C19" t="n">
         <v>0.211864406779661</v>
@@ -3363,7 +3464,7 @@
         <v>0.1557377049180328</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C20" t="n">
         <v>0.211864406779661</v>
@@ -3374,10 +3475,10 @@
         <v>0.1557377049180328</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2288135593220339</v>
+        <v>0.2203389830508475</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -3385,10 +3486,10 @@
         <v>0.1639344262295082</v>
       </c>
       <c r="B22" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2288135593220339</v>
+        <v>0.2203389830508475</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -3396,10 +3497,10 @@
         <v>0.1639344262295082</v>
       </c>
       <c r="B23" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2711864406779661</v>
+        <v>0.2542372881355932</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -3407,10 +3508,10 @@
         <v>0.1721311475409836</v>
       </c>
       <c r="B24" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C24" t="n">
-        <v>0.2711864406779661</v>
+        <v>0.2542372881355932</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -3418,117 +3519,117 @@
         <v>0.1721311475409836</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C25" t="n">
-        <v>0.3050847457627119</v>
+        <v>0.2627118644067797</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="n">
-        <v>0.1885245901639344</v>
+        <v>0.180327868852459</v>
       </c>
       <c r="B26" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3050847457627119</v>
+        <v>0.2627118644067797</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="n">
-        <v>0.1885245901639344</v>
+        <v>0.180327868852459</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3135593220338983</v>
+        <v>0.2711864406779661</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="n">
-        <v>0.1967213114754098</v>
+        <v>0.2213114754098361</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C28" t="n">
-        <v>0.3135593220338983</v>
+        <v>0.2711864406779661</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="n">
-        <v>0.1967213114754098</v>
+        <v>0.2213114754098361</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3220338983050847</v>
+        <v>0.2966101694915254</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="n">
-        <v>0.2049180327868853</v>
+        <v>0.2295081967213115</v>
       </c>
       <c r="B30" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C30" t="n">
-        <v>0.3220338983050847</v>
+        <v>0.2966101694915254</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="n">
-        <v>0.2049180327868853</v>
+        <v>0.2295081967213115</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C31" t="n">
-        <v>0.3389830508474576</v>
+        <v>0.3050847457627119</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="n">
-        <v>0.2213114754098361</v>
+        <v>0.2377049180327869</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C32" t="n">
-        <v>0.3389830508474576</v>
+        <v>0.3050847457627119</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="n">
-        <v>0.2213114754098361</v>
+        <v>0.2377049180327869</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C33" t="n">
-        <v>0.3474576271186441</v>
+        <v>0.3389830508474576</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="n">
-        <v>0.2622950819672131</v>
+        <v>0.2540983606557377</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C34" t="n">
-        <v>0.3474576271186441</v>
+        <v>0.3389830508474576</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="n">
-        <v>0.2622950819672131</v>
+        <v>0.2540983606557377</v>
       </c>
       <c r="B35" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C35" t="n">
         <v>0.3559322033898305</v>
@@ -3536,10 +3637,10 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="n">
-        <v>0.2786885245901639</v>
+        <v>0.2868852459016393</v>
       </c>
       <c r="B36" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C36" t="n">
         <v>0.3559322033898305</v>
@@ -3547,54 +3648,54 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="n">
-        <v>0.2786885245901639</v>
+        <v>0.2868852459016393</v>
       </c>
       <c r="B37" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C37" t="n">
-        <v>0.3728813559322034</v>
+        <v>0.3644067796610169</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="n">
-        <v>0.2868852459016393</v>
+        <v>0.2950819672131147</v>
       </c>
       <c r="B38" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C38" t="n">
-        <v>0.3728813559322034</v>
+        <v>0.3644067796610169</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="n">
-        <v>0.2868852459016393</v>
+        <v>0.2950819672131147</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C39" t="n">
-        <v>0.3813559322033898</v>
+        <v>0.3898305084745763</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="n">
-        <v>0.3360655737704918</v>
+        <v>0.3032786885245902</v>
       </c>
       <c r="B40" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C40" t="n">
-        <v>0.3813559322033898</v>
+        <v>0.3898305084745763</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="n">
-        <v>0.3360655737704918</v>
+        <v>0.3032786885245902</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C41" t="n">
         <v>0.3983050847457627</v>
@@ -3602,10 +3703,10 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="n">
-        <v>0.3442622950819672</v>
+        <v>0.319672131147541</v>
       </c>
       <c r="B42" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C42" t="n">
         <v>0.3983050847457627</v>
@@ -3613,793 +3714,881 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="n">
-        <v>0.3442622950819672</v>
+        <v>0.319672131147541</v>
       </c>
       <c r="B43" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4152542372881356</v>
+        <v>0.4322033898305085</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="n">
-        <v>0.3524590163934426</v>
+        <v>0.3278688524590164</v>
       </c>
       <c r="B44" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4152542372881356</v>
+        <v>0.4322033898305085</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="n">
-        <v>0.3524590163934426</v>
+        <v>0.3278688524590164</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C45" t="n">
-        <v>0.423728813559322</v>
+        <v>0.4491525423728814</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="n">
-        <v>0.3770491803278688</v>
+        <v>0.360655737704918</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C46" t="n">
-        <v>0.423728813559322</v>
+        <v>0.4491525423728814</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="n">
-        <v>0.3770491803278688</v>
+        <v>0.360655737704918</v>
       </c>
       <c r="B47" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C47" t="n">
-        <v>0.4491525423728814</v>
+        <v>0.4830508474576271</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="n">
-        <v>0.3852459016393442</v>
+        <v>0.3688524590163935</v>
       </c>
       <c r="B48" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C48" t="n">
-        <v>0.4491525423728814</v>
+        <v>0.4830508474576271</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="n">
-        <v>0.3852459016393442</v>
+        <v>0.3688524590163935</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C49" t="n">
-        <v>0.4576271186440678</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="n">
-        <v>0.4098360655737705</v>
+        <v>0.3770491803278688</v>
       </c>
       <c r="B50" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C50" t="n">
-        <v>0.4576271186440678</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="n">
-        <v>0.4098360655737705</v>
+        <v>0.3770491803278688</v>
       </c>
       <c r="B51" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C51" t="n">
-        <v>0.4745762711864407</v>
+        <v>0.5084745762711864</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="n">
-        <v>0.4180327868852459</v>
+        <v>0.3934426229508197</v>
       </c>
       <c r="B52" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C52" t="n">
-        <v>0.4745762711864407</v>
+        <v>0.5084745762711864</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="n">
-        <v>0.4180327868852459</v>
+        <v>0.3934426229508197</v>
       </c>
       <c r="B53" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C53" t="n">
-        <v>0.4830508474576271</v>
+        <v>0.5254237288135594</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="n">
-        <v>0.4262295081967213</v>
+        <v>0.4016393442622951</v>
       </c>
       <c r="B54" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C54" t="n">
-        <v>0.4830508474576271</v>
+        <v>0.5254237288135594</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="n">
-        <v>0.4262295081967213</v>
+        <v>0.4016393442622951</v>
       </c>
       <c r="B55" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C55" t="n">
-        <v>0.5084745762711864</v>
+        <v>0.5423728813559322</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="n">
-        <v>0.4508196721311475</v>
+        <v>0.4098360655737705</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C56" t="n">
-        <v>0.5084745762711864</v>
+        <v>0.5423728813559322</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="n">
-        <v>0.4508196721311475</v>
+        <v>0.4098360655737705</v>
       </c>
       <c r="B57" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C57" t="n">
-        <v>0.5169491525423728</v>
+        <v>0.5508474576271186</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="n">
-        <v>0.4754098360655737</v>
+        <v>0.4180327868852459</v>
       </c>
       <c r="B58" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C58" t="n">
-        <v>0.5169491525423728</v>
+        <v>0.5508474576271186</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="n">
-        <v>0.4754098360655737</v>
+        <v>0.4180327868852459</v>
       </c>
       <c r="B59" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C59" t="n">
-        <v>0.5254237288135594</v>
+        <v>0.559322033898305</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="n">
-        <v>0.5163934426229508</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="B60" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C60" t="n">
-        <v>0.5254237288135594</v>
+        <v>0.559322033898305</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="n">
-        <v>0.5163934426229508</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="B61" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C61" t="n">
-        <v>0.5508474576271186</v>
+        <v>0.576271186440678</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="n">
-        <v>0.5327868852459017</v>
+        <v>0.4836065573770492</v>
       </c>
       <c r="B62" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C62" t="n">
-        <v>0.5508474576271186</v>
+        <v>0.576271186440678</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="n">
-        <v>0.5327868852459017</v>
+        <v>0.4836065573770492</v>
       </c>
       <c r="B63" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C63" t="n">
-        <v>0.576271186440678</v>
+        <v>0.5932203389830508</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="n">
-        <v>0.5491803278688525</v>
+        <v>0.5081967213114754</v>
       </c>
       <c r="B64" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C64" t="n">
-        <v>0.576271186440678</v>
+        <v>0.5932203389830508</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="n">
-        <v>0.5491803278688525</v>
+        <v>0.5081967213114754</v>
       </c>
       <c r="B65" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C65" t="n">
-        <v>0.5847457627118644</v>
+        <v>0.6016949152542372</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="n">
-        <v>0.5655737704918032</v>
+        <v>0.5245901639344263</v>
       </c>
       <c r="B66" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C66" t="n">
-        <v>0.5847457627118644</v>
+        <v>0.6016949152542372</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="n">
-        <v>0.5655737704918032</v>
+        <v>0.5245901639344263</v>
       </c>
       <c r="B67" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C67" t="n">
-        <v>0.6101694915254238</v>
+        <v>0.6186440677966102</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="n">
-        <v>0.5983606557377049</v>
+        <v>0.5327868852459017</v>
       </c>
       <c r="B68" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C68" t="n">
-        <v>0.6101694915254238</v>
+        <v>0.6186440677966102</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="n">
-        <v>0.5983606557377049</v>
+        <v>0.5327868852459017</v>
       </c>
       <c r="B69" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C69" t="n">
-        <v>0.635593220338983</v>
+        <v>0.6440677966101694</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="n">
-        <v>0.6311475409836066</v>
+        <v>0.5409836065573771</v>
       </c>
       <c r="B70" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C70" t="n">
-        <v>0.635593220338983</v>
+        <v>0.6440677966101694</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="n">
-        <v>0.6311475409836066</v>
+        <v>0.5409836065573771</v>
       </c>
       <c r="B71" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C71" t="n">
-        <v>0.6610169491525424</v>
+        <v>0.652542372881356</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="n">
-        <v>0.6639344262295082</v>
+        <v>0.5491803278688525</v>
       </c>
       <c r="B72" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C72" t="n">
-        <v>0.6610169491525424</v>
+        <v>0.652542372881356</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="n">
-        <v>0.6639344262295082</v>
+        <v>0.5491803278688525</v>
       </c>
       <c r="B73" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C73" t="n">
-        <v>0.6694915254237288</v>
+        <v>0.6610169491525424</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="n">
-        <v>0.680327868852459</v>
+        <v>0.5655737704918032</v>
       </c>
       <c r="B74" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C74" t="n">
-        <v>0.6694915254237288</v>
+        <v>0.6610169491525424</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="n">
-        <v>0.680327868852459</v>
+        <v>0.5655737704918032</v>
       </c>
       <c r="B75" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C75" t="n">
-        <v>0.7033898305084746</v>
+        <v>0.6779661016949152</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="n">
-        <v>0.7049180327868853</v>
+        <v>0.5737704918032787</v>
       </c>
       <c r="B76" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C76" t="n">
-        <v>0.7033898305084746</v>
+        <v>0.6779661016949152</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="n">
-        <v>0.7049180327868853</v>
+        <v>0.5737704918032787</v>
       </c>
       <c r="B77" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C77" t="n">
-        <v>0.7203389830508474</v>
+        <v>0.6864406779661016</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="n">
-        <v>0.7131147540983607</v>
+        <v>0.6311475409836066</v>
       </c>
       <c r="B78" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C78" t="n">
-        <v>0.7203389830508474</v>
+        <v>0.6864406779661016</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="n">
-        <v>0.7131147540983607</v>
+        <v>0.6311475409836066</v>
       </c>
       <c r="B79" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C79" t="n">
-        <v>0.7372881355932204</v>
+        <v>0.6949152542372882</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="n">
-        <v>0.7459016393442623</v>
+        <v>0.639344262295082</v>
       </c>
       <c r="B80" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C80" t="n">
-        <v>0.7372881355932204</v>
+        <v>0.6949152542372882</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="n">
-        <v>0.7459016393442623</v>
+        <v>0.639344262295082</v>
       </c>
       <c r="B81" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C81" t="n">
-        <v>0.7457627118644068</v>
+        <v>0.711864406779661</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="n">
-        <v>0.7540983606557377</v>
+        <v>0.6475409836065574</v>
       </c>
       <c r="B82" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C82" t="n">
-        <v>0.7457627118644068</v>
+        <v>0.711864406779661</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="n">
-        <v>0.7540983606557377</v>
+        <v>0.6475409836065574</v>
       </c>
       <c r="B83" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C83" t="n">
-        <v>0.7542372881355932</v>
+        <v>0.7203389830508474</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="n">
-        <v>0.7622950819672131</v>
+        <v>0.6721311475409836</v>
       </c>
       <c r="B84" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C84" t="n">
-        <v>0.7542372881355932</v>
+        <v>0.7203389830508474</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="n">
-        <v>0.7622950819672131</v>
+        <v>0.6721311475409836</v>
       </c>
       <c r="B85" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C85" t="n">
-        <v>0.7796610169491526</v>
+        <v>0.7372881355932204</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="n">
-        <v>0.7704918032786885</v>
+        <v>0.6967213114754098</v>
       </c>
       <c r="B86" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C86" t="n">
-        <v>0.7796610169491526</v>
+        <v>0.7372881355932204</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="n">
-        <v>0.7704918032786885</v>
+        <v>0.6967213114754098</v>
       </c>
       <c r="B87" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C87" t="n">
-        <v>0.788135593220339</v>
+        <v>0.7457627118644068</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="n">
-        <v>0.7786885245901639</v>
+        <v>0.7131147540983607</v>
       </c>
       <c r="B88" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C88" t="n">
-        <v>0.788135593220339</v>
+        <v>0.7457627118644068</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="n">
-        <v>0.7786885245901639</v>
+        <v>0.7131147540983607</v>
       </c>
       <c r="B89" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C89" t="n">
-        <v>0.8050847457627118</v>
+        <v>0.7711864406779662</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="n">
-        <v>0.8032786885245902</v>
+        <v>0.7213114754098361</v>
       </c>
       <c r="B90" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C90" t="n">
-        <v>0.8050847457627118</v>
+        <v>0.7711864406779662</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="n">
-        <v>0.8032786885245902</v>
+        <v>0.7213114754098361</v>
       </c>
       <c r="B91" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C91" t="n">
-        <v>0.8220338983050848</v>
+        <v>0.7966101694915254</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="n">
-        <v>0.8278688524590164</v>
+        <v>0.7295081967213115</v>
       </c>
       <c r="B92" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C92" t="n">
-        <v>0.8220338983050848</v>
+        <v>0.7966101694915254</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="n">
-        <v>0.8278688524590164</v>
+        <v>0.7295081967213115</v>
       </c>
       <c r="B93" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C93" t="n">
-        <v>0.847457627118644</v>
+        <v>0.8050847457627118</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="n">
-        <v>0.8360655737704918</v>
+        <v>0.7459016393442623</v>
       </c>
       <c r="B94" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C94" t="n">
-        <v>0.847457627118644</v>
+        <v>0.8050847457627118</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="n">
-        <v>0.8360655737704918</v>
+        <v>0.7459016393442623</v>
       </c>
       <c r="B95" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C95" t="n">
-        <v>0.8559322033898306</v>
+        <v>0.8220338983050848</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="n">
-        <v>0.8524590163934426</v>
+        <v>0.7622950819672131</v>
       </c>
       <c r="B96" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C96" t="n">
-        <v>0.8559322033898306</v>
+        <v>0.8220338983050848</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="n">
-        <v>0.8524590163934426</v>
+        <v>0.7622950819672131</v>
       </c>
       <c r="B97" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C97" t="n">
-        <v>0.8728813559322034</v>
+        <v>0.8305084745762712</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="n">
-        <v>0.8688524590163934</v>
+        <v>0.7786885245901639</v>
       </c>
       <c r="B98" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C98" t="n">
-        <v>0.8728813559322034</v>
+        <v>0.8305084745762712</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="n">
-        <v>0.8688524590163934</v>
+        <v>0.7786885245901639</v>
       </c>
       <c r="B99" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C99" t="n">
-        <v>0.8898305084745762</v>
+        <v>0.8389830508474576</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="n">
-        <v>0.8852459016393442</v>
+        <v>0.7868852459016393</v>
       </c>
       <c r="B100" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C100" t="n">
-        <v>0.8898305084745762</v>
+        <v>0.8389830508474576</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="n">
-        <v>0.8852459016393442</v>
+        <v>0.7868852459016393</v>
       </c>
       <c r="B101" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C101" t="n">
-        <v>0.8983050847457628</v>
+        <v>0.8559322033898306</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="n">
-        <v>0.8934426229508197</v>
+        <v>0.8032786885245902</v>
       </c>
       <c r="B102" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C102" t="n">
-        <v>0.8983050847457628</v>
+        <v>0.8559322033898306</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="n">
-        <v>0.8934426229508197</v>
+        <v>0.8032786885245902</v>
       </c>
       <c r="B103" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C103" t="n">
-        <v>0.9152542372881356</v>
+        <v>0.8728813559322034</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="n">
-        <v>0.9016393442622951</v>
+        <v>0.8114754098360656</v>
       </c>
       <c r="B104" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C104" t="n">
-        <v>0.9152542372881356</v>
+        <v>0.8728813559322034</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="n">
-        <v>0.9016393442622951</v>
+        <v>0.8114754098360656</v>
       </c>
       <c r="B105" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C105" t="n">
-        <v>0.923728813559322</v>
+        <v>0.8898305084745762</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="n">
-        <v>0.9180327868852459</v>
+        <v>0.8524590163934426</v>
       </c>
       <c r="B106" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C106" t="n">
-        <v>0.923728813559322</v>
+        <v>0.8898305084745762</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="n">
-        <v>0.9180327868852459</v>
+        <v>0.8524590163934426</v>
       </c>
       <c r="B107" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C107" t="n">
-        <v>0.940677966101695</v>
+        <v>0.8983050847457628</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="n">
-        <v>0.9262295081967213</v>
+        <v>0.8770491803278688</v>
       </c>
       <c r="B108" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C108" t="n">
-        <v>0.940677966101695</v>
+        <v>0.8983050847457628</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="n">
-        <v>0.9262295081967213</v>
+        <v>0.8770491803278688</v>
       </c>
       <c r="B109" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C109" t="n">
-        <v>0.9661016949152542</v>
+        <v>0.9152542372881356</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="n">
-        <v>0.9344262295081968</v>
+        <v>0.9016393442622951</v>
       </c>
       <c r="B110" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C110" t="n">
-        <v>0.9661016949152542</v>
+        <v>0.9152542372881356</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="n">
-        <v>0.9344262295081968</v>
+        <v>0.9016393442622951</v>
       </c>
       <c r="B111" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C111" t="n">
-        <v>0.9915254237288136</v>
+        <v>0.923728813559322</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="n">
-        <v>0.9590163934426229</v>
+        <v>0.9180327868852459</v>
       </c>
       <c r="B112" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C112" t="n">
-        <v>0.9915254237288136</v>
+        <v>0.923728813559322</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="n">
-        <v>0.9590163934426229</v>
+        <v>0.9180327868852459</v>
       </c>
       <c r="B113" t="n">
-        <v>0.5388996943595443</v>
+        <v>0.5752292303417615</v>
       </c>
       <c r="C113" t="n">
-        <v>1</v>
+        <v>0.9322033898305084</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="n">
+        <v>0.9262295081967213</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.9322033898305084</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" t="n">
+        <v>0.9262295081967213</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.9576271186440678</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="n">
+        <v>0.9344262295081968</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.9576271186440678</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="n">
+        <v>0.9344262295081968</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.9661016949152542</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="n">
+        <v>0.9426229508196722</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.9661016949152542</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="n">
+        <v>0.9426229508196722</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.9745762711864406</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="n">
+        <v>0.9754098360655737</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.9745762711864406</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" t="n">
+        <v>0.9754098360655737</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C121" t="n">
         <v>1</v>
       </c>
-      <c r="B114" t="n">
-        <v>0.5388996943595443</v>
-      </c>
-      <c r="C114" t="n">
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" t="n">
+        <v>1</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.5752292303417615</v>
+      </c>
+      <c r="C122" t="n">
         <v>1</v>
       </c>
     </row>
